--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -58,166 +58,178 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>best</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>potatoes</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>tea</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>little</t>
-  </si>
-  <si>
-    <t>makes</t>
   </si>
   <si>
     <t>one</t>
@@ -590,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3737373737373738</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -709,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3643410852713178</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
@@ -759,13 +771,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +797,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.868421052631579</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>561</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>561</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +823,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.855072463768116</v>
+        <v>0.8513931888544891</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>550</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>550</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -863,13 +875,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7727272727272727</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -881,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -889,13 +901,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7272727272727273</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L10">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -907,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -915,13 +927,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -933,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -941,13 +953,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.7012987012987013</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L12">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -959,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -967,13 +979,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.671875</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -985,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -993,13 +1005,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6711864406779661</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1011,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1019,13 +1031,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6575342465753424</v>
+        <v>0.6644067796610169</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1037,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1045,13 +1057,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.647887323943662</v>
+        <v>0.64446227929374</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>803</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>803</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1063,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1071,13 +1083,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6326530612244898</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1089,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1097,13 +1109,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.630016051364366</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L18">
-        <v>785</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>785</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1115,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>461</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1123,13 +1135,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6029411764705882</v>
+        <v>0.5885714285714285</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1141,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1149,13 +1161,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1175,13 +1187,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5789473684210527</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1193,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1201,13 +1213,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5692307692307692</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1219,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1227,13 +1239,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5673076923076923</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L23">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1245,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1253,13 +1265,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5542857142857143</v>
+        <v>0.5625</v>
       </c>
       <c r="L24">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1271,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1279,13 +1291,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5149700598802395</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L25">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="M25">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1297,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1305,13 +1317,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5076923076923077</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1323,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1331,13 +1343,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.492063492063492</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1349,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1357,13 +1369,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4868421052631579</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1375,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1383,13 +1395,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4861111111111111</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1401,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1409,13 +1421,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4819277108433735</v>
+        <v>0.51</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1427,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1435,13 +1447,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.4661654135338346</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L31">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="M31">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1453,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1461,13 +1473,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4615384615384616</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="L32">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1479,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1487,13 +1499,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4444444444444444</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1505,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1513,13 +1525,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.44</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L34">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="M34">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1531,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1539,13 +1551,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.4156626506024096</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="L35">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1557,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1565,13 +1577,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3947368421052632</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1583,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1591,13 +1603,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.3529411764705883</v>
+        <v>0.4060150375939849</v>
       </c>
       <c r="L37">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="M37">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1609,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>264</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1617,13 +1629,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.3423423423423423</v>
+        <v>0.3504901960784313</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1635,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>73</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1643,13 +1655,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.3267326732673267</v>
+        <v>0.3501945525291829</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1661,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>68</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1669,13 +1681,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3190661478599222</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="L40">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1687,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>175</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1695,13 +1707,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.3136986301369863</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L41">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="M41">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1713,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>501</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1721,13 +1733,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.302158273381295</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L42">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1739,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1747,13 +1759,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.2913907284768212</v>
+        <v>0.3068493150684932</v>
       </c>
       <c r="L43">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="M43">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1765,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>107</v>
+        <v>506</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1773,13 +1785,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2777777777777778</v>
+        <v>0.2966507177033493</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1791,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>78</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1799,13 +1811,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.2706766917293233</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1817,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1825,13 +1837,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.2508073196986007</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L46">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1843,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>696</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1851,13 +1863,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.2488038277511962</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L47">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1869,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>157</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1877,13 +1889,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.2214765100671141</v>
+        <v>0.2497308934337998</v>
       </c>
       <c r="L48">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="M48">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1895,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>116</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1903,13 +1915,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1933774834437086</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L49">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1921,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>609</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1929,13 +1941,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1912225705329154</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L50">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M50">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1947,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>258</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1955,13 +1967,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1892583120204604</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L51">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M51">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1973,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>634</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1981,25 +1993,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1653116531165312</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L52">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M52">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>308</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2007,13 +2019,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1386363636363636</v>
+        <v>0.1879795396419437</v>
       </c>
       <c r="L53">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="M53">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2025,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>379</v>
+        <v>635</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2033,13 +2045,13 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1336515513126492</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L54">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M54">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2051,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>363</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2059,25 +2071,25 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.1313868613138686</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L55">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M55">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>357</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2085,13 +2097,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.1293859649122807</v>
+        <v>0.1592592592592593</v>
       </c>
       <c r="L56">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M56">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2103,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>397</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2111,13 +2123,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.1259259259259259</v>
+        <v>0.1551312649164678</v>
       </c>
       <c r="L57">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="M57">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2129,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>236</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2137,25 +2149,25 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1237113402061856</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="L58">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>255</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2163,13 +2175,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1217712177121771</v>
+        <v>0.1439114391143911</v>
       </c>
       <c r="L59">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M59">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2181,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2189,25 +2201,25 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.07563025210084033</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="L60">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="M60">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="N60">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>990</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2215,13 +2227,13 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.07020057306590258</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="L61">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M61">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2233,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>649</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2241,13 +2253,13 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.05350553505535055</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L62">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M62">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2259,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>513</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2267,25 +2279,129 @@
         <v>71</v>
       </c>
       <c r="K63">
-        <v>0.04238754325259515</v>
+        <v>0.09965635738831616</v>
       </c>
       <c r="L63">
+        <v>29</v>
+      </c>
+      <c r="M63">
+        <v>29</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64">
+        <v>0.07282913165266107</v>
+      </c>
+      <c r="L64">
+        <v>78</v>
+      </c>
+      <c r="M64">
+        <v>79</v>
+      </c>
+      <c r="N64">
+        <v>0.99</v>
+      </c>
+      <c r="O64">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K65">
+        <v>0.0703012912482066</v>
+      </c>
+      <c r="L65">
         <v>49</v>
       </c>
-      <c r="M63">
+      <c r="M65">
         <v>50</v>
       </c>
-      <c r="N63">
+      <c r="N65">
         <v>0.98</v>
       </c>
-      <c r="O63">
+      <c r="O65">
         <v>0.02000000000000002</v>
       </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>1107</v>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66">
+        <v>0.06839186691312385</v>
+      </c>
+      <c r="L66">
+        <v>37</v>
+      </c>
+      <c r="M66">
+        <v>38</v>
+      </c>
+      <c r="N66">
+        <v>0.97</v>
+      </c>
+      <c r="O66">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K67">
+        <v>0.04509973980919341</v>
+      </c>
+      <c r="L67">
+        <v>52</v>
+      </c>
+      <c r="M67">
+        <v>56</v>
+      </c>
+      <c r="N67">
+        <v>0.93</v>
+      </c>
+      <c r="O67">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
